--- a/lab_2/tsData2025.xlsx
+++ b/lab_2/tsData2025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C1C664-CFAA-426F-A3C7-E2C5CCD67FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE50157B-413C-4015-82AD-E37082AE150D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -95,11 +96,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,276 +390,276 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
         <v>0.64657534246575343</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.99840499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>0.72876712328767124</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.998108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>0.81095890410958904</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.99783699999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>0.89589041095890409</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.99752700000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>0.98082191780821915</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.99722100000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>1.0684931506849316</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.99687700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>1.1479452054794521</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.99657899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>1.2410958904109588</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.99617299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>1.3178082191780822</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.99584700000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>1.4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.99547699999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>1.4767123287671233</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.99511899999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>1.5671232876712329</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.99467000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>1.6438356164383561</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.99428899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>2.1479452054794521</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.99128499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>3.1485284052019167</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.98193799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>4.1538882803943045</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.96714599999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>5.1510725696029205</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.94752499999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>6.1482785602503904</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.92425800000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>7.1485284052019162</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.89831700000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>8.1484636446607848</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.87077700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>9.1484118291347212</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.84224399999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>10.153846153846153</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.81325700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>11.148528405201917</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.78483899999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>12.148483572030329</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.75702499999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>15.154004106776181</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.67993000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>20.148500651890483</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.57874700000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>25.148483572030329</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.50056400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>30.148472001413175</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.43777700000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>35.148528405201915</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.38183400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>40.148514190317194</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.33139999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
         <v>45.148503065293731</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.288101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <v>50.151232082460943</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.25065199999999999</v>
       </c>
     </row>
